--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_2_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_2_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,21 +589,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.7723873811259452, 1.2633044485664673]</t>
+          <t>[0.7801789853080079, 1.2555128443844046]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.06590292148212e-10</v>
+        <v>4.311728751815735e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>1.06590292148212e-10</v>
+        <v>4.311728751815735e-11</v>
       </c>
       <c r="O2" t="n">
         <v>1.830237161550811</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.591237119836273, 2.0692372032653497]</t>
+          <t>[1.5786581702723508, 2.081816152829272]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,23 +617,23 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.411708252157737, 0.6877575478991388]</t>
+          <t>[0.41175596260917513, 0.6877098374477006]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>3.203310949828619e-10</v>
+        <v>3.173692419977669e-10</v>
       </c>
       <c r="V2" t="n">
-        <v>3.203310949828619e-10</v>
+        <v>3.173692419977669e-10</v>
       </c>
       <c r="W2" t="n">
         <v>15.37897897897916</v>
       </c>
       <c r="X2" t="n">
-        <v>14.55355355355373</v>
+        <v>14.51011011011029</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.2044044044046</v>
+        <v>16.24784784784804</v>
       </c>
     </row>
   </sheetData>
